--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,49 +46,55 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>instead</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>though</t>
   </si>
   <si>
     <t>thought</t>
@@ -97,64 +103,58 @@
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>better</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>even</t>
   </si>
   <si>
     <t>like</t>
@@ -163,21 +163,21 @@
     <t>little</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -199,51 +199,51 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>best</t>
+    <t>every</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -253,9 +253,6 @@
     <t>easy</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -265,7 +262,7 @@
     <t>play</t>
   </si>
   <si>
-    <t>well</t>
+    <t>kids</t>
   </si>
   <si>
     <t>year</t>
@@ -643,7 +640,7 @@
         <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>55</v>
@@ -751,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9318181818181818</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K6">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7272727272727273</v>
+        <v>0.703125</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K7">
-        <v>0.7547169811320755</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K8">
-        <v>0.6384505021520803</v>
+        <v>0.6163793103448276</v>
       </c>
       <c r="L8">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="M8">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6990291262135923</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>0.5942028985507246</v>
+        <v>0.5975103734439834</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.668918918918919</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K10">
-        <v>0.5912863070539419</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L10">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6386554621848739</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K11">
-        <v>0.5258408531583265</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L11">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="M11">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,37 +1148,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5783132530120482</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>48</v>
-      </c>
-      <c r="D12">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K12">
-        <v>0.4770642201834863</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L12">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>171</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,37 +1198,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5697674418604651</v>
+        <v>0.5478260869565217</v>
       </c>
       <c r="C13">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D13">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K13">
-        <v>0.4285714285714285</v>
+        <v>0.4464831804281346</v>
       </c>
       <c r="L13">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="M13">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>108</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4928909952606635</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C14">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K14">
-        <v>0.4216867469879518</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="L14">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4842105263157895</v>
+        <v>0.4786729857819905</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,31 +1316,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K15">
-        <v>0.375</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4803149606299212</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K16">
-        <v>0.375</v>
+        <v>0.34375</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4603174603174603</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,31 +1416,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K17">
-        <v>0.2972972972972973</v>
+        <v>0.312</v>
       </c>
       <c r="L17">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4269662921348314</v>
+        <v>0.4609375</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,31 +1466,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K18">
-        <v>0.2867132867132867</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.421875</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K19">
-        <v>0.2857142857142857</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3910891089108911</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C20">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K20">
-        <v>0.2764227642276423</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3041237113402062</v>
+        <v>0.3675213675213675</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,31 +1616,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K21">
-        <v>0.264957264957265</v>
+        <v>0.2506596306068601</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>86</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2905982905982906</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,31 +1666,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K22">
-        <v>0.2504393673110721</v>
+        <v>0.2369477911646586</v>
       </c>
       <c r="L22">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="M22">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>853</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2626582278481013</v>
+        <v>0.3144329896907216</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K23">
-        <v>0.2449799196787149</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="L23">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1748,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2608695652173913</v>
+        <v>0.2928571428571429</v>
       </c>
       <c r="C24">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K24">
-        <v>0.16991643454039</v>
+        <v>0.1532033426183844</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,49 +1798,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.26</v>
+        <v>0.2824207492795389</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K25">
-        <v>0.1447196870925684</v>
+        <v>0.143786597267404</v>
       </c>
       <c r="L25">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M25">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1312</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1848,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2468354430379747</v>
+        <v>0.27</v>
       </c>
       <c r="C26">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,31 +1866,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K26">
-        <v>0.1340482573726542</v>
+        <v>0.1263440860215054</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,49 +1898,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2457627118644068</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K27">
-        <v>0.1233333333333333</v>
+        <v>0.1006944444444444</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1948,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2403560830860534</v>
+        <v>0.25</v>
       </c>
       <c r="C28">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="D28">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,31 +1966,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>512</v>
+        <v>207</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K28">
-        <v>0.1041666666666667</v>
+        <v>0.1003134796238244</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +1998,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2356687898089172</v>
+        <v>0.2468354430379747</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,31 +2016,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K29">
-        <v>0.1021671826625387</v>
+        <v>0.07537012113055182</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>290</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,49 +2048,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2334293948126801</v>
+        <v>0.2468354430379747</v>
       </c>
       <c r="C30">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K30">
-        <v>0.08993288590604027</v>
+        <v>0.06607142857142857</v>
       </c>
       <c r="L30">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="N30">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O30">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>678</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,49 +2098,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2285714285714286</v>
+        <v>0.2421991084695394</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>108</v>
+        <v>510</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K31">
-        <v>0.07455012853470437</v>
+        <v>0.06109979633401222</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N31">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="O31">
-        <v>0.1899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>360</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2148,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2210526315789474</v>
+        <v>0.2345132743362832</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="E32">
         <v>0.02</v>
@@ -2169,45 +2166,45 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K32">
-        <v>0.07099391480730223</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N32">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="O32">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2171428571428571</v>
+        <v>0.2102803738317757</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,71 +2216,47 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>137</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33">
-        <v>0.06502890173410404</v>
-      </c>
-      <c r="L33">
-        <v>45</v>
-      </c>
-      <c r="M33">
-        <v>58</v>
-      </c>
-      <c r="N33">
-        <v>0.78</v>
-      </c>
-      <c r="O33">
-        <v>0.22</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2119205298013245</v>
+        <v>0.1832460732984293</v>
       </c>
       <c r="C34">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1967213114754098</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2295,345 +2268,345 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1869158878504673</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.169811320754717</v>
+        <v>0.1570247933884298</v>
       </c>
       <c r="C37">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E37">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1684210526315789</v>
+        <v>0.1563786008230453</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F38">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1497175141242938</v>
+        <v>0.133587786259542</v>
       </c>
       <c r="C39">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1475409836065574</v>
+        <v>0.1289398280802292</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F40">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1401098901098901</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="C41">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1225165562913907</v>
+        <v>0.11</v>
       </c>
       <c r="C42">
+        <v>66</v>
+      </c>
+      <c r="D42">
         <v>74</v>
       </c>
-      <c r="D42">
-        <v>78</v>
-      </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F42">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1073825503355705</v>
+        <v>0.1065759637188209</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="F43">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09316770186335403</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="F44">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0924170616113744</v>
+        <v>0.09567901234567901</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F45">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.09177215189873418</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08962264150943396</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E47">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F47">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08656330749354005</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="C48">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="E48">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="F48">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>707</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
